--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna5-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna5-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
     <t>Efna5</t>
   </si>
   <si>
     <t>Epha4</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.386502</v>
+        <v>0.1261995</v>
       </c>
       <c r="H2">
-        <v>0.773004</v>
+        <v>0.252399</v>
       </c>
       <c r="I2">
-        <v>0.2023774294220003</v>
+        <v>0.07923641825693001</v>
       </c>
       <c r="J2">
-        <v>0.1704859662986497</v>
+        <v>0.06507622895681928</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="N2">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="O2">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="P2">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="Q2">
-        <v>4.028261245461001</v>
+        <v>0.8732096132602499</v>
       </c>
       <c r="R2">
-        <v>16.113044981844</v>
+        <v>3.492838453041</v>
       </c>
       <c r="S2">
-        <v>0.1039123818253362</v>
+        <v>0.04977197478986657</v>
       </c>
       <c r="T2">
-        <v>0.07279616908785723</v>
+        <v>0.03721324798724118</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.386502</v>
+        <v>0.1261995</v>
       </c>
       <c r="H3">
-        <v>0.773004</v>
+        <v>0.252399</v>
       </c>
       <c r="I3">
-        <v>0.2023774294220003</v>
+        <v>0.07923641825693001</v>
       </c>
       <c r="J3">
-        <v>0.1704859662986497</v>
+        <v>0.06507622895681928</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.248004</v>
       </c>
       <c r="O3">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="P3">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="Q3">
-        <v>0.804955347336</v>
+        <v>0.262831660266</v>
       </c>
       <c r="R3">
-        <v>4.829732084016</v>
+        <v>1.576989961596</v>
       </c>
       <c r="S3">
-        <v>0.02076449919899674</v>
+        <v>0.01498111171714654</v>
       </c>
       <c r="T3">
-        <v>0.02181995977999447</v>
+        <v>0.01680149806618412</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.386502</v>
+        <v>0.1261995</v>
       </c>
       <c r="H4">
-        <v>0.773004</v>
+        <v>0.252399</v>
       </c>
       <c r="I4">
-        <v>0.2023774294220003</v>
+        <v>0.07923641825693001</v>
       </c>
       <c r="J4">
-        <v>0.1704859662986497</v>
+        <v>0.06507622895681928</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="N4">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="O4">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="P4">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="Q4">
-        <v>0.6397120215150001</v>
+        <v>0.009747901778999998</v>
       </c>
       <c r="R4">
-        <v>2.55884808606</v>
+        <v>0.05848741067399999</v>
       </c>
       <c r="S4">
-        <v>0.01650190883543776</v>
+        <v>0.0005556195376583463</v>
       </c>
       <c r="T4">
-        <v>0.01156046781678171</v>
+        <v>0.0006231340346268313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.1261995</v>
+      </c>
+      <c r="H5">
+        <v>0.252399</v>
+      </c>
+      <c r="I5">
+        <v>0.07923641825693001</v>
+      </c>
+      <c r="J5">
+        <v>0.06507622895681928</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.386502</v>
-      </c>
-      <c r="H5">
-        <v>0.773004</v>
-      </c>
-      <c r="I5">
-        <v>0.2023774294220003</v>
-      </c>
-      <c r="J5">
-        <v>0.1704859662986497</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="N5">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="O5">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="P5">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="Q5">
-        <v>2.362125653930001</v>
+        <v>0.24317968482675</v>
       </c>
       <c r="R5">
-        <v>14.17275392358</v>
+        <v>0.972718739307</v>
       </c>
       <c r="S5">
-        <v>0.06093301499429094</v>
+        <v>0.01386097101864748</v>
       </c>
       <c r="T5">
-        <v>0.06403024333538786</v>
+        <v>0.0103634978125463</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.386502</v>
+        <v>0.1261995</v>
       </c>
       <c r="H6">
-        <v>0.773004</v>
+        <v>0.252399</v>
       </c>
       <c r="I6">
-        <v>0.2023774294220003</v>
+        <v>0.07923641825693001</v>
       </c>
       <c r="J6">
-        <v>0.1704859662986497</v>
+        <v>0.06507622895681928</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="N6">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="O6">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="P6">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="Q6">
-        <v>0.010297186284</v>
+        <v>0.0011709210275</v>
       </c>
       <c r="R6">
-        <v>0.061783117704</v>
+        <v>0.007025526165</v>
       </c>
       <c r="S6">
-        <v>0.0002656245679386591</v>
+        <v>6.674119361107544E-05</v>
       </c>
       <c r="T6">
-        <v>0.0002791262786284768</v>
+        <v>7.485105622087227E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6931216666666665</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H7">
         <v>2.079365</v>
       </c>
       <c r="I7">
-        <v>0.3629274393837355</v>
+        <v>0.4351877644756155</v>
       </c>
       <c r="J7">
-        <v>0.4586037734767113</v>
+        <v>0.5361242826825642</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="N7">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="O7">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="P7">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="Q7">
-        <v>7.223960414752499</v>
+        <v>4.7959025391725</v>
       </c>
       <c r="R7">
-        <v>43.343762488515</v>
+        <v>28.775415235035</v>
       </c>
       <c r="S7">
-        <v>0.1863481256968401</v>
+        <v>0.2733610998430552</v>
       </c>
       <c r="T7">
-        <v>0.1958202106785634</v>
+        <v>0.3065777812154158</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6931216666666665</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H8">
         <v>2.079365</v>
       </c>
       <c r="I8">
-        <v>0.3629274393837355</v>
+        <v>0.4351877644756155</v>
       </c>
       <c r="J8">
-        <v>0.4586037734767113</v>
+        <v>0.5361242826825642</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>6.248004</v>
       </c>
       <c r="O8">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="P8">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="Q8">
-        <v>1.443542315273333</v>
+        <v>1.443542315273334</v>
       </c>
       <c r="R8">
         <v>12.99188083746</v>
       </c>
       <c r="S8">
-        <v>0.03723738633256047</v>
+        <v>0.08228030318589329</v>
       </c>
       <c r="T8">
-        <v>0.05869524694300184</v>
+        <v>0.138417533454534</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6931216666666665</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H9">
         <v>2.079365</v>
       </c>
       <c r="I9">
-        <v>0.3629274393837355</v>
+        <v>0.4351877644756155</v>
       </c>
       <c r="J9">
-        <v>0.4586037734767113</v>
+        <v>0.5361242826825642</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="N9">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="O9">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="P9">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="Q9">
-        <v>1.147208196954167</v>
+        <v>0.05353810377666667</v>
       </c>
       <c r="R9">
-        <v>6.883249181725</v>
+        <v>0.48184293399</v>
       </c>
       <c r="S9">
-        <v>0.0295931988843525</v>
+        <v>0.00305161224865642</v>
       </c>
       <c r="T9">
-        <v>0.03109742273240798</v>
+        <v>0.005133630093272243</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6931216666666665</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H10">
         <v>2.079365</v>
       </c>
       <c r="I10">
-        <v>0.3629274393837355</v>
+        <v>0.4351877644756155</v>
       </c>
       <c r="J10">
-        <v>0.4586037734767113</v>
+        <v>0.5361242826825642</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="N10">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="O10">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="P10">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="Q10">
-        <v>4.236046566713888</v>
+        <v>1.3356083696575</v>
       </c>
       <c r="R10">
-        <v>38.124419100425</v>
+        <v>8.013650217945001</v>
       </c>
       <c r="S10">
-        <v>0.1092723786885137</v>
+        <v>0.07612818857494133</v>
       </c>
       <c r="T10">
-        <v>0.1722400491240521</v>
+        <v>0.0853786846579635</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6931216666666665</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H11">
         <v>2.079365</v>
       </c>
       <c r="I11">
-        <v>0.3629274393837355</v>
+        <v>0.4351877644756155</v>
       </c>
       <c r="J11">
-        <v>0.4586037734767113</v>
+        <v>0.5361242826825642</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="N11">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="O11">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="P11">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="Q11">
-        <v>0.01846614744333333</v>
+        <v>0.006431013863888889</v>
       </c>
       <c r="R11">
-        <v>0.16619532699</v>
+        <v>0.057879124775</v>
       </c>
       <c r="S11">
-        <v>0.0004763497814688064</v>
+        <v>0.0003665606230692777</v>
       </c>
       <c r="T11">
-        <v>0.0007508439986860388</v>
+        <v>0.0006166532613786665</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8088005</v>
+        <v>0.7733745</v>
       </c>
       <c r="H12">
-        <v>1.617601</v>
+        <v>1.546749</v>
       </c>
       <c r="I12">
-        <v>0.4234983676804482</v>
+        <v>0.4855758172674545</v>
       </c>
       <c r="J12">
-        <v>0.3567617626437407</v>
+        <v>0.3987994883606166</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.4223555</v>
+        <v>6.9192795</v>
       </c>
       <c r="N12">
-        <v>20.844711</v>
+        <v>13.838559</v>
       </c>
       <c r="O12">
-        <v>0.5134583541362048</v>
+        <v>0.6281451873364243</v>
       </c>
       <c r="P12">
-        <v>0.4269921487868165</v>
+        <v>0.5718408792853329</v>
       </c>
       <c r="Q12">
-        <v>8.429606339577751</v>
+        <v>5.351194323672749</v>
       </c>
       <c r="R12">
-        <v>33.718425358311</v>
+        <v>21.404777294691</v>
       </c>
       <c r="S12">
-        <v>0.2174487748485722</v>
+        <v>0.3050121127035025</v>
       </c>
       <c r="T12">
-        <v>0.152334471636223</v>
+        <v>0.2280498500826759</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8088005</v>
+        <v>0.7733745</v>
       </c>
       <c r="H13">
-        <v>1.617601</v>
+        <v>1.546749</v>
       </c>
       <c r="I13">
-        <v>0.4234983676804482</v>
+        <v>0.4855758172674545</v>
       </c>
       <c r="J13">
-        <v>0.3567617626437407</v>
+        <v>0.3987994883606166</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>6.248004</v>
       </c>
       <c r="O13">
-        <v>0.1026028409309336</v>
+        <v>0.1890685122662809</v>
       </c>
       <c r="P13">
-        <v>0.1279868381762944</v>
+        <v>0.2581818021036928</v>
       </c>
       <c r="Q13">
-        <v>1.684462919734</v>
+        <v>1.610682323166</v>
       </c>
       <c r="R13">
-        <v>10.106777518404</v>
+        <v>9.664093938995999</v>
       </c>
       <c r="S13">
-        <v>0.04345213565362707</v>
+        <v>0.09180709736324111</v>
       </c>
       <c r="T13">
-        <v>0.04566080998297399</v>
+        <v>0.1029627705829746</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8088005</v>
+        <v>0.7733745</v>
       </c>
       <c r="H14">
-        <v>1.617601</v>
+        <v>1.546749</v>
       </c>
       <c r="I14">
-        <v>0.4234983676804482</v>
+        <v>0.4855758172674545</v>
       </c>
       <c r="J14">
-        <v>0.3567617626437407</v>
+        <v>0.3987994883606166</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>1.6551325</v>
+        <v>0.07724199999999999</v>
       </c>
       <c r="N14">
-        <v>3.310265</v>
+        <v>0.231726</v>
       </c>
       <c r="O14">
-        <v>0.0815402630746324</v>
+        <v>0.007012173819577614</v>
       </c>
       <c r="P14">
-        <v>0.0678089115941109</v>
+        <v>0.009575447818900294</v>
       </c>
       <c r="Q14">
-        <v>1.33867199356625</v>
+        <v>0.05973699312899999</v>
       </c>
       <c r="R14">
-        <v>5.354687974265</v>
+        <v>0.358421958774</v>
       </c>
       <c r="S14">
-        <v>0.03453216831234114</v>
+        <v>0.003404942033262848</v>
       </c>
       <c r="T14">
-        <v>0.02419162682326859</v>
+        <v>0.003818683691001219</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8088005</v>
+        <v>0.7733745</v>
       </c>
       <c r="H15">
-        <v>1.617601</v>
+        <v>1.546749</v>
       </c>
       <c r="I15">
-        <v>0.4234983676804482</v>
+        <v>0.4855758172674545</v>
       </c>
       <c r="J15">
-        <v>0.3567617626437407</v>
+        <v>0.3987994883606166</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.111548333333334</v>
+        <v>1.9269465</v>
       </c>
       <c r="N15">
-        <v>18.334645</v>
+        <v>3.853893</v>
       </c>
       <c r="O15">
-        <v>0.3010860211453351</v>
+        <v>0.1749318220531151</v>
       </c>
       <c r="P15">
-        <v>0.3755748624096281</v>
+        <v>0.1592516649884999</v>
       </c>
       <c r="Q15">
-        <v>4.943023347774168</v>
+        <v>1.49025128596425</v>
       </c>
       <c r="R15">
-        <v>29.65814008664501</v>
+        <v>5.961005143857</v>
       </c>
       <c r="S15">
-        <v>0.1275094384864503</v>
+        <v>0.08494266245952628</v>
       </c>
       <c r="T15">
-        <v>0.1339907499179393</v>
+        <v>0.06350948251799006</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,10 +1393,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8088005</v>
+        <v>0.7733745</v>
       </c>
       <c r="H16">
-        <v>1.617601</v>
+        <v>1.546749</v>
       </c>
       <c r="I16">
-        <v>0.4234983676804482</v>
+        <v>0.4855758172674545</v>
       </c>
       <c r="J16">
-        <v>0.3567617626437407</v>
+        <v>0.3987994883606166</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,338 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.026642</v>
+        <v>0.009278333333333333</v>
       </c>
       <c r="N16">
-        <v>0.079926</v>
+        <v>0.027835</v>
       </c>
       <c r="O16">
-        <v>0.001312520712894198</v>
+        <v>0.0008423045246020856</v>
       </c>
       <c r="P16">
-        <v>0.001637239033150188</v>
+        <v>0.001150205803574436</v>
       </c>
       <c r="Q16">
-        <v>0.021548062921</v>
+        <v>0.0071756264025</v>
       </c>
       <c r="R16">
-        <v>0.129288377526</v>
+        <v>0.043053758415</v>
       </c>
       <c r="S16">
-        <v>0.0005558503794574711</v>
+        <v>0.0004090027079217324</v>
       </c>
       <c r="T16">
-        <v>0.0005841042833357948</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.02138366666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.064151</v>
-      </c>
-      <c r="I17">
-        <v>0.01119676351381601</v>
-      </c>
-      <c r="J17">
-        <v>0.01414849758089826</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>10.4223555</v>
-      </c>
-      <c r="N17">
-        <v>20.844711</v>
-      </c>
-      <c r="O17">
-        <v>0.5134583541362048</v>
-      </c>
-      <c r="P17">
-        <v>0.4269921487868165</v>
-      </c>
-      <c r="Q17">
-        <v>0.2228681758935</v>
-      </c>
-      <c r="R17">
-        <v>1.337209055361</v>
-      </c>
-      <c r="S17">
-        <v>0.005749071765456275</v>
-      </c>
-      <c r="T17">
-        <v>0.006041297384172823</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.02138366666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.064151</v>
-      </c>
-      <c r="I18">
-        <v>0.01119676351381601</v>
-      </c>
-      <c r="J18">
-        <v>0.01414849758089826</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>2.082668</v>
-      </c>
-      <c r="N18">
-        <v>6.248004</v>
-      </c>
-      <c r="O18">
-        <v>0.1026028409309336</v>
-      </c>
-      <c r="P18">
-        <v>0.1279868381762944</v>
-      </c>
-      <c r="Q18">
-        <v>0.04453507828933333</v>
-      </c>
-      <c r="R18">
-        <v>0.400815704604</v>
-      </c>
-      <c r="S18">
-        <v>0.001148819745749345</v>
-      </c>
-      <c r="T18">
-        <v>0.001810821470324119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.02138366666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.064151</v>
-      </c>
-      <c r="I19">
-        <v>0.01119676351381601</v>
-      </c>
-      <c r="J19">
-        <v>0.01414849758089826</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.6551325</v>
-      </c>
-      <c r="N19">
-        <v>3.310265</v>
-      </c>
-      <c r="O19">
-        <v>0.0815402630746324</v>
-      </c>
-      <c r="P19">
-        <v>0.0678089115941109</v>
-      </c>
-      <c r="Q19">
-        <v>0.03539280166916667</v>
-      </c>
-      <c r="R19">
-        <v>0.212356810015</v>
-      </c>
-      <c r="S19">
-        <v>0.0009129870425010026</v>
-      </c>
-      <c r="T19">
-        <v>0.0009593942216526221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.02138366666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.064151</v>
-      </c>
-      <c r="I20">
-        <v>0.01119676351381601</v>
-      </c>
-      <c r="J20">
-        <v>0.01414849758089826</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>6.111548333333334</v>
-      </c>
-      <c r="N20">
-        <v>18.334645</v>
-      </c>
-      <c r="O20">
-        <v>0.3010860211453351</v>
-      </c>
-      <c r="P20">
-        <v>0.3755748624096281</v>
-      </c>
-      <c r="Q20">
-        <v>0.1306873123772222</v>
-      </c>
-      <c r="R20">
-        <v>1.176185811395</v>
-      </c>
-      <c r="S20">
-        <v>0.003371188976080122</v>
-      </c>
-      <c r="T20">
-        <v>0.00531382003224882</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.02138366666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.064151</v>
-      </c>
-      <c r="I21">
-        <v>0.01119676351381601</v>
-      </c>
-      <c r="J21">
-        <v>0.01414849758089826</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.026642</v>
-      </c>
-      <c r="N21">
-        <v>0.079926</v>
-      </c>
-      <c r="O21">
-        <v>0.001312520712894198</v>
-      </c>
-      <c r="P21">
-        <v>0.001637239033150188</v>
-      </c>
-      <c r="Q21">
-        <v>0.0005697036473333333</v>
-      </c>
-      <c r="R21">
-        <v>0.005127332825999999</v>
-      </c>
-      <c r="S21">
-        <v>1.469598402926153E-05</v>
-      </c>
-      <c r="T21">
-        <v>2.316447249987764E-05</v>
+        <v>0.0004587014859748968</v>
       </c>
     </row>
   </sheetData>
